--- a/Finflux Automation Excels/Client/5047-CompondingPenalityCharge-MoraoriumOnPrinciple2-Preclose-verify.xlsx
+++ b/Finflux Automation Excels/Client/5047-CompondingPenalityCharge-MoraoriumOnPrinciple2-Preclose-verify.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,10 +722,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="B5" s="7">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -750,7 +750,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,20 +909,20 @@
         <v>0</v>
       </c>
       <c r="J4" s="7">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="K4" s="7">
-        <v>43.06</v>
+        <v>42.94</v>
       </c>
       <c r="L4" s="7">
-        <v>592.04999999999995</v>
+        <v>591.92999999999995</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7">
         <v>548.99</v>
       </c>
       <c r="O4" s="7">
-        <v>43.06</v>
+        <v>42.94</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7">
@@ -986,7 +986,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>424</v>
+        <v>664</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>34</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>423</v>
+        <v>663</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>34</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>422</v>
+        <v>662</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>34</v>
@@ -1110,10 +1110,10 @@
         <v>36</v>
       </c>
       <c r="E4" s="10">
-        <v>4533.91</v>
+        <v>4533.79</v>
       </c>
       <c r="F4" s="10">
-        <v>4494.07</v>
+        <v>4493.95</v>
       </c>
       <c r="G4" s="7">
         <v>39.840000000000003</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>421</v>
+        <v>661</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>34</v>
@@ -1159,14 +1159,14 @@
         <v>0</v>
       </c>
       <c r="J5" s="10">
-        <v>4533.91</v>
+        <v>4533.79</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>420</v>
+        <v>660</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>34</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>419</v>
+        <v>659</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>34</v>
@@ -1212,7 +1212,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="7">
-        <v>43.79</v>
+        <v>43.67</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
@@ -1224,17 +1224,17 @@
         <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="J7" s="10">
-        <v>4488.17</v>
+        <v>4488.05</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>418</v>
+        <v>658</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>34</v>
@@ -1246,7 +1246,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="7">
-        <v>43.79</v>
+        <v>43.67</v>
       </c>
       <c r="F8" s="7">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7">
         <v>0</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>417</v>
+        <v>657</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>34</v>
@@ -1283,7 +1283,7 @@
         <v>600</v>
       </c>
       <c r="F9" s="7">
-        <v>505.93</v>
+        <v>506.05</v>
       </c>
       <c r="G9" s="7">
         <v>93.95</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="J9" s="10">
         <v>4444.38</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>412</v>
+        <v>652</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>34</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>411</v>
+        <v>651</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>34</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>410</v>
+        <v>650</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>34</v>
